--- a/tests/data/desired/keyreport.xlsx
+++ b/tests/data/desired/keyreport.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">keys!$A$1:$E$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">nokey1!$A$1:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">nokey2!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">nokey1!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">nokey2!$A$1:$C$2</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>KEY_COLUMN (Src1)</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>&lt;missing&gt;</t>
+  </si>
+  <si>
+    <t># of Diffs</t>
   </si>
   <si>
     <t>COL1 (Src1)</t>
@@ -295,8 +298,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.15234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.03515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -306,17 +310,23 @@
       <c r="B1" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="C1" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n" s="2">
         <v>1024.0</v>
       </c>
-      <c r="B2" t="n" s="2">
+      <c r="C2" t="n" s="2">
         <v>1025.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2"/>
+  <autoFilter ref="A1:C2"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -329,8 +339,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.15234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.03515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -340,17 +351,23 @@
       <c r="B1" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="C1" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1026.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
         <v>1026.0</v>
       </c>
+      <c r="C2" t="n">
+        <v>1026.0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2"/>
+  <autoFilter ref="A1:C2"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/keyreport.xlsx
+++ b/tests/data/desired/keyreport.xlsx
@@ -11,7 +11,7 @@
     <sheet name="nokey2" r:id="rId5" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">keys!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">keys!$A$1:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">nokey1!$A$1:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">nokey2!$A$1:$C$2</definedName>
   </definedNames>
@@ -115,10 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -136,7 +135,6 @@
     <col min="2" max="2" width="19.23828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.859375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.23828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -191,7 +189,7 @@
       <c r="C4" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>4</v>
       </c>
     </row>
@@ -199,7 +197,10 @@
       <c r="A5" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C5" t="n" s="3">
+      <c r="B5" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="D5" t="n" s="2">
@@ -230,7 +231,7 @@
       <c r="C7" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="D7" t="s" s="2">
         <v>4</v>
       </c>
     </row>
@@ -238,7 +239,10 @@
       <c r="A8" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C8" t="n" s="3">
+      <c r="B8" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n" s="2">
         <v>7.0</v>
       </c>
       <c r="D8" t="n" s="2">
@@ -255,7 +259,7 @@
       <c r="C9" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="D9" t="s" s="2">
         <v>4</v>
       </c>
     </row>
@@ -263,7 +267,10 @@
       <c r="A10" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C10" t="n" s="3">
+      <c r="B10" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n" s="2">
         <v>8.0</v>
       </c>
       <c r="D10" t="n" s="2">
@@ -285,7 +292,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11"/>
+  <autoFilter ref="A1:D11"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/tests/data/desired/keyreport.xlsx
+++ b/tests/data/desired/keyreport.xlsx
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -63,16 +63,31 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="D02020"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,7 +95,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -89,16 +106,11 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
         <fgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,10 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -311,24 +326,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="2">
+      <c r="A2" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" t="n" s="2">
+      <c r="B2" t="n" s="4">
         <v>1024.0</v>
       </c>
-      <c r="C2" t="n" s="2">
+      <c r="C2" t="n" s="4">
         <v>1025.0</v>
       </c>
     </row>
@@ -352,13 +367,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="5">
         <v>7</v>
       </c>
     </row>
